--- a/storage/ImportExcel/DiemExcel.xlsx
+++ b/storage/ImportExcel/DiemExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>stt</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Danh Sách Nhập Điểm Niên Luận</t>
+  </si>
+  <si>
+    <t>Quản lý phân công trong nhóm tốt</t>
+  </si>
+  <si>
+    <t>mssv</t>
   </si>
 </sst>
 </file>
@@ -106,12 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,131 +400,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H3"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1111271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="C4" s="4">
+        <v>1111306</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
+        <v>0.75</v>
+      </c>
+      <c r="I4">
+        <v>0.75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
+      <c r="C5" s="4">
+        <v>1111359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/storage/ImportExcel/DiemExcel.xlsx
+++ b/storage/ImportExcel/DiemExcel.xlsx
@@ -118,8 +118,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +405,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,8 +413,8 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
@@ -429,14 +431,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -461,20 +463,20 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="3">
         <v>1111271</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
         <v>0.5</v>
@@ -490,23 +492,23 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>1111306</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I4">
         <v>0.75</v>
@@ -522,20 +524,20 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="3">
         <v>1111359</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
         <v>0.5</v>
